--- a/results/gurobi_cplex_comparison/seed_50_k_5.xlsx
+++ b/results/gurobi_cplex_comparison/seed_50_k_5.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.005</v>
+        <v>0.151</v>
       </c>
       <c r="F2">
-        <v>0.042</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.016</v>
+        <v>0.223</v>
       </c>
       <c r="F3">
-        <v>0.061</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.004</v>
+        <v>0.285</v>
       </c>
       <c r="F4">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.008999999999999999</v>
+        <v>0.371</v>
       </c>
       <c r="F5">
-        <v>0.068</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.022</v>
+        <v>0.476</v>
       </c>
       <c r="F6">
-        <v>0.161</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.053</v>
+        <v>0.617</v>
       </c>
       <c r="F7">
-        <v>0.595</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.008999999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="F8">
-        <v>0.08400000000000001</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.038</v>
+        <v>0.852</v>
       </c>
       <c r="F9">
-        <v>0.133</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.031</v>
+        <v>0.991</v>
       </c>
       <c r="F10">
-        <v>0.434</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.007</v>
+        <v>1.128</v>
       </c>
       <c r="F11">
-        <v>0.03</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.067</v>
+        <v>1.344</v>
       </c>
       <c r="F12">
-        <v>0.847</v>
+        <v>1.277</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.045</v>
+        <v>1.495</v>
       </c>
       <c r="F13">
-        <v>0.424</v>
+        <v>0.8090000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.056</v>
+        <v>1.732</v>
       </c>
       <c r="F14">
-        <v>1.636</v>
+        <v>2.098</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.014</v>
+        <v>1.876</v>
       </c>
       <c r="F15">
-        <v>0.039</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07099999999999999</v>
+        <v>2.142</v>
       </c>
       <c r="F16">
-        <v>2.039</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.114</v>
+        <v>2.409</v>
       </c>
       <c r="F17">
-        <v>82.886</v>
+        <v>10.224</v>
       </c>
     </row>
   </sheetData>
